--- a/data/data-pilot/42-1-edit.xlsx
+++ b/data/data-pilot/42-1-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s421506\tiu\research\reviewmi\data\open-data\recalculations\42-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s421506\tiu\research\reviewmi\data\data-pilot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Data_PLOS_ONE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -95,21 +95,6 @@
     <t>exp-dreamlike</t>
   </si>
   <si>
-    <t>neo-neuro</t>
-  </si>
-  <si>
-    <t>neo-open</t>
-  </si>
-  <si>
-    <t>neo-agere</t>
-  </si>
-  <si>
-    <t>neo-extra</t>
-  </si>
-  <si>
-    <t>neo-conscient</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -117,6 +102,21 @@
   </si>
   <si>
     <t>manip</t>
+  </si>
+  <si>
+    <t>neoconscient</t>
+  </si>
+  <si>
+    <t>neoextra</t>
+  </si>
+  <si>
+    <t>neoagere</t>
+  </si>
+  <si>
+    <t>neoopen</t>
+  </si>
+  <si>
+    <t>neoneuro</t>
   </si>
 </sst>
 </file>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -571,13 +571,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
@@ -625,19 +625,19 @@
         <v>22</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
